--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S17/S17_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S17/S17_dampingfactor.xlsx
@@ -14,168 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.01550762850720022</t>
-  </si>
-  <si>
-    <t>0.02412896733046548</t>
-  </si>
-  <si>
-    <t>0.03754756828210395</t>
-  </si>
-  <si>
-    <t>0.06036928763800296</t>
-  </si>
-  <si>
-    <t>0.0924103718253057</t>
-  </si>
-  <si>
-    <t>0.1485709491910894</t>
-  </si>
-  <si>
-    <t>0.23117064777561383</t>
-  </si>
-  <si>
-    <t>0.353800908917008</t>
-  </si>
-  <si>
-    <t>0.5687119632430931</t>
-  </si>
-  <si>
-    <t>0.8848344249187157</t>
-  </si>
-  <si>
-    <t>1.399442078518251</t>
-  </si>
-  <si>
-    <t>2.1769936235025367</t>
-  </si>
-  <si>
-    <t>3.6456165116908212</t>
-  </si>
-  <si>
-    <t>5.560625709067387</t>
-  </si>
-  <si>
-    <t>8.752920237850544</t>
-  </si>
-  <si>
-    <t>13.618525409055453</t>
-  </si>
-  <si>
-    <t>23.36998589762561</t>
-  </si>
-  <si>
-    <t>33.497283858478646</t>
-  </si>
-  <si>
-    <t>48.01342828092525</t>
-  </si>
-  <si>
-    <t>68.81485170300984</t>
-  </si>
-  <si>
-    <t>98.63821446632664</t>
-  </si>
-  <si>
-    <t>141.38465799640014</t>
-  </si>
-  <si>
-    <t>202.65780261330974</t>
-  </si>
-  <si>
-    <t>290.46690123046835</t>
-  </si>
-  <si>
-    <t>416.30740220293853</t>
-  </si>
-  <si>
-    <t>506.6882778649346</t>
-  </si>
-  <si>
-    <t>7.592243287013982</t>
-  </si>
-  <si>
-    <t>6.566972416701831</t>
-  </si>
-  <si>
-    <t>5.533346130022474</t>
-  </si>
-  <si>
-    <t>4.687429788088272</t>
-  </si>
-  <si>
-    <t>4.028937283049223</t>
-  </si>
-  <si>
-    <t>3.4510563477486613</t>
-  </si>
-  <si>
-    <t>2.976473152752462</t>
-  </si>
-  <si>
-    <t>2.6661707286790715</t>
-  </si>
-  <si>
-    <t>2.3817056070777944</t>
-  </si>
-  <si>
-    <t>2.0859435477143764</t>
-  </si>
-  <si>
-    <t>1.8052886763582998</t>
-  </si>
-  <si>
-    <t>1.6382393541066194</t>
-  </si>
-  <si>
-    <t>1.441457574856849</t>
-  </si>
-  <si>
-    <t>1.2589621836441536</t>
-  </si>
-  <si>
-    <t>1.1097516375620486</t>
-  </si>
-  <si>
-    <t>0.9681276479810375</t>
-  </si>
-  <si>
-    <t>0.8683446564115429</t>
-  </si>
-  <si>
-    <t>0.8080719374672938</t>
-  </si>
-  <si>
-    <t>0.7511992222217774</t>
-  </si>
-  <si>
-    <t>0.710816607298031</t>
-  </si>
-  <si>
-    <t>0.6573531517157175</t>
-  </si>
-  <si>
-    <t>0.6098152569006963</t>
-  </si>
-  <si>
-    <t>0.5645367952118334</t>
-  </si>
-  <si>
-    <t>0.5303043631394604</t>
-  </si>
-  <si>
-    <t>0.5023199431918091</t>
-  </si>
-  <si>
-    <t>0.47186022208991085</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -548,211 +392,211 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
+      <c r="A2">
+        <v>0.01550762850720022</v>
+      </c>
+      <c r="B2">
+        <v>7.592243287013982</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
+      <c r="A3">
+        <v>0.02412896733046548</v>
+      </c>
+      <c r="B3">
+        <v>6.566972416701831</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
+      <c r="A4">
+        <v>0.03754756828210395</v>
+      </c>
+      <c r="B4">
+        <v>5.533346130022474</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
+      <c r="A5">
+        <v>0.06036928763800296</v>
+      </c>
+      <c r="B5">
+        <v>4.687429788088272</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
+      <c r="A6">
+        <v>0.0924103718253057</v>
+      </c>
+      <c r="B6">
+        <v>4.028937283049223</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
+      <c r="A7">
+        <v>0.1485709491910894</v>
+      </c>
+      <c r="B7">
+        <v>3.451056347748661</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
+      <c r="A8">
+        <v>0.2311706477756138</v>
+      </c>
+      <c r="B8">
+        <v>2.976473152752462</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
+      <c r="A9">
+        <v>0.353800908917008</v>
+      </c>
+      <c r="B9">
+        <v>2.666170728679071</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+      <c r="A10">
+        <v>0.5687119632430931</v>
+      </c>
+      <c r="B10">
+        <v>2.381705607077794</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
+      <c r="A11">
+        <v>0.8848344249187157</v>
+      </c>
+      <c r="B11">
+        <v>2.085943547714376</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
+      <c r="A12">
+        <v>1.399442078518251</v>
+      </c>
+      <c r="B12">
+        <v>1.8052886763583</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
+      <c r="A13">
+        <v>2.176993623502537</v>
+      </c>
+      <c r="B13">
+        <v>1.638239354106619</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
+      <c r="A14">
+        <v>3.645616511690821</v>
+      </c>
+      <c r="B14">
+        <v>1.441457574856849</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
+      <c r="A15">
+        <v>5.560625709067387</v>
+      </c>
+      <c r="B15">
+        <v>1.258962183644154</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
+      <c r="A16">
+        <v>8.752920237850544</v>
+      </c>
+      <c r="B16">
+        <v>1.109751637562049</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
+      <c r="A17">
+        <v>13.61852540905545</v>
+      </c>
+      <c r="B17">
+        <v>0.9681276479810375</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
+      <c r="A18">
+        <v>23.36998589762561</v>
+      </c>
+      <c r="B18">
+        <v>0.8683446564115429</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
+      <c r="A19">
+        <v>33.49728385847865</v>
+      </c>
+      <c r="B19">
+        <v>0.8080719374672938</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
+      <c r="A20">
+        <v>48.01342828092525</v>
+      </c>
+      <c r="B20">
+        <v>0.7511992222217774</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
+      <c r="A21">
+        <v>68.81485170300984</v>
+      </c>
+      <c r="B21">
+        <v>0.710816607298031</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
+      <c r="A22">
+        <v>98.63821446632664</v>
+      </c>
+      <c r="B22">
+        <v>0.6573531517157175</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
+      <c r="A23">
+        <v>141.3846579964001</v>
+      </c>
+      <c r="B23">
+        <v>0.6098152569006963</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
+      <c r="A24">
+        <v>202.6578026133097</v>
+      </c>
+      <c r="B24">
+        <v>0.5645367952118334</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
+      <c r="A25">
+        <v>290.4669012304684</v>
+      </c>
+      <c r="B25">
+        <v>0.5303043631394604</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
+      <c r="A26">
+        <v>416.3074022029385</v>
+      </c>
+      <c r="B26">
+        <v>0.5023199431918091</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
+      <c r="A27">
+        <v>506.6882778649346</v>
+      </c>
+      <c r="B27">
+        <v>0.4718602220899109</v>
       </c>
     </row>
   </sheetData>
